--- a/secondExcel.xlsx
+++ b/secondExcel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Izmir Fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XYZ</t>
   </si>
 </sst>
 </file>
@@ -211,13 +214,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.53"/>
   </cols>
@@ -311,6 +314,17 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
